--- a/epa-shop-main/base/Vendas/Vendas/Epa_2020.xlsx
+++ b/epa-shop-main/base/Vendas/Vendas/Epa_2020.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\preparando o ambiente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202302198651\Downloads\epa-petshop-powerbi-main\epa-petshop-powerbi-main\epa-shop-main\base\Vendas\Vendas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAB8665-98CB-42D2-ABBF-D717B96A93D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" tabRatio="661"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="2" r:id="rId1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,7 +121,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -140,23 +138,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE7F0EA4-DFAA-42C5-8F02-946740BF7C6A}" name="Vendas" displayName="Vendas" ref="A1:E36" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:E36" xr:uid="{AF0B822C-6875-4030-B4FC-34E911D19778}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Vendas" displayName="Vendas" ref="A1:E36" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:E36"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D48B3C71-ACB3-4F14-950F-548FC9FF64CD}" name="Transacao" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{E161EE7C-1214-4476-A842-3F58EB7EDA87}" name="Data de compra" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{955933BE-A104-44D0-8ABE-67DD02C53123}" name="ID Consumidor" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{AC6ADE56-83DD-43FE-83FB-A77AD8C162EB}" name="ID Produto"/>
-    <tableColumn id="12" xr3:uid="{F037E282-01A9-48D2-A050-7C35248A8F0D}" name="Quantidade"/>
+    <tableColumn id="1" name="Transacao" dataDxfId="2"/>
+    <tableColumn id="2" name="Data de compra" dataDxfId="1"/>
+    <tableColumn id="3" name="ID Consumidor" dataDxfId="0"/>
+    <tableColumn id="10" name="ID Produto"/>
+    <tableColumn id="12" name="Quantidade"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -194,9 +192,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,7 +229,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +264,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,27 +437,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -476,7 +474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -493,7 +491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -510,7 +508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -527,7 +525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -544,7 +542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -561,7 +559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -578,7 +576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -595,7 +593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -612,7 +610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -629,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -646,7 +644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -663,7 +661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -680,7 +678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -697,7 +695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -714,7 +712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -731,7 +729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -748,7 +746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -765,7 +763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -782,7 +780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -799,7 +797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -816,7 +814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -833,7 +831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -850,7 +848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -867,7 +865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -884,7 +882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -901,7 +899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -918,7 +916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -935,7 +933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -952,7 +950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -969,7 +967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -986,7 +984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1003,7 +1001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1020,7 +1018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1037,7 +1035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1054,7 +1052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1072,7 +1070,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E36">
+  <sortState ref="A2:E36">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
